--- a/config_8.10/act_ty_phb_config.xlsx
+++ b/config_8.10/act_ty_phb_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>is_have_point|有加成填1,无则填0</t>
   </si>
   <si>
-    <t>prop_fish_drop_act_0</t>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
   </si>
   <si>
@@ -162,6 +159,10 @@
   </si>
   <si>
     <t>积分数达到9万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_grade</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -624,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H19:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -709,16 +710,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="9">
         <v>1628553600</v>
@@ -727,19 +728,19 @@
         <v>1629129599</v>
       </c>
       <c r="J2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="N2" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" s="1">
         <v>100</v>
@@ -784,7 +785,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="M9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -812,19 +813,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -835,7 +836,7 @@
         <v>40000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -846,7 +847,7 @@
         <v>15000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -857,7 +858,7 @@
         <v>5000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -868,7 +869,7 @@
         <v>2200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -879,7 +880,7 @@
         <v>1200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -890,7 +891,7 @@
         <v>600</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -901,7 +902,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -912,13 +913,13 @@
         <v>60000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4">
         <v>3000000</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -929,13 +930,13 @@
         <v>15000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4">
         <v>1800000</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -946,13 +947,13 @@
         <v>5000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4">
         <v>900000</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -963,13 +964,13 @@
         <v>800</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="4">
         <v>450000</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -980,13 +981,13 @@
         <v>800</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4">
         <v>300000</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -997,13 +998,13 @@
         <v>400</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4">
         <v>180000</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1014,13 +1015,13 @@
         <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4">
         <v>90000</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">

--- a/config_8.10/act_ty_phb_config.xlsx
+++ b/config_8.10/act_ty_phb_config.xlsx
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H19:H20"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -743,7 +743,7 @@
         <v>35</v>
       </c>
       <c r="O2" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
